--- a/data/hotels_by_city/Houston/Houston_shard_666.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_666.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d12104043-Reviews-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>483</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Travelodge-By-Wyndham-Houston-Hobby-Airport.h17325301.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,417 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r587692604-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>12104043</t>
+  </si>
+  <si>
+    <t>587692604</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>Decent Hotel needing Friendly staff</t>
+  </si>
+  <si>
+    <t>I liked the hotel, but the front desk staff could be more friendly and welcoming. The clerk in the evening was rude and need more training in customer service. I think access to a restuarant is needed. They are pretty close to the highway, but the nice restaurants are at the next exit, so I had to take a cab.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>FrontDesk_GM, General Manager at Travelodge by Wyndham Houston Hobby Airport, responded to this reviewResponded June 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2018</t>
+  </si>
+  <si>
+    <t>I liked the hotel, but the front desk staff could be more friendly and welcoming. The clerk in the evening was rude and need more training in customer service. I think access to a restuarant is needed. They are pretty close to the highway, but the nice restaurants are at the next exit, so I had to take a cab.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r575267679-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>575267679</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Watch your credit card here !!!</t>
+  </si>
+  <si>
+    <t>My credit card was used fraudulently at this place!    I have never been there and was 3000 miles away in another country when it happened.   I reported it and the place is now blacklisted.Read what others have said and it is no surprise that this occurred!!!</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r566714168-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566714168</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>Last Chance Hotel</t>
+  </si>
+  <si>
+    <t>Breakfast unsatified....stale cereal and coffee cold each day. Great location...many eating place around.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r556587593-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>556587593</t>
+  </si>
+  <si>
+    <t>01/26/2018</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r555676444-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555676444</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r555262901-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555262901</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Got stuck here due to flight cancella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place was maybe the worst hotel I’ve ever stayed in. There was not cold water in the sink, the heat was almost warm, and I felt I’d stay cleaner by not taking a shower.  On the plus side, the front desk staff was great and the shuttle to the airports was on time.  If stranded in Houston again, I’d probably elect to stay at the airport </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r546900206-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546900206</t>
+  </si>
+  <si>
+    <t>12/12/2017</t>
+  </si>
+  <si>
+    <t>Business trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business trip this is a terrible hotel rooms are very bad shape and the guest in the hotel we’re very loud </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r539465749-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539465749</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>HORRIBLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sheets had little cotton balls stuck to the sheets.  The sheets were too old and cheap. Bath tub didn't look clean. This place needs to be torn down. </t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r537293467-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>537293467</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r512447703-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>512447703</t>
+  </si>
+  <si>
+    <t>08/13/2017</t>
+  </si>
+  <si>
+    <t>Omg</t>
+  </si>
+  <si>
+    <t>There where crack heads everywhere...they all of a sudden wanted a $50 deposit due to a customer destroying the items. Front desk is very ride &amp; ignorant</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r512200562-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>512200562</t>
+  </si>
+  <si>
+    <t>What's not wrong with this place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The floors were wet, the floor and bed was uneven.. the office was locked at 2 in the afternoon and had to wait outside for a half an hour to check in...  </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r505596984-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>505596984</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r497790870-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>497790870</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r497185380-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>497185380</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r495918733-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>495918733</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>Would not stay here again I believe their was prostitution at this location due to females walking back and forth from room with a male keeping eye on them. Also woke up at 530 in the morning to people arguing back and forth next room to us</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r490124028-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>490124028</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>One night OK but don't do longterm parking here</t>
+  </si>
+  <si>
+    <t>This was a basic hotel with a comfortable bed in a remodeled room, well located and fairly priced for Houston Hobby airport. It was average in meeting our expectations for a single night stay both before and after our trip. We requested a ground floor room, and all that was available was an accessible room at the back of the building, which was fine for the night. But we left our car there for a week through a parking package, and after we returned home we realized that a very expensive trailer hitch had been removed from our vehicle. If you decide to do longterm parking here, be sure to move the car to the front of the building where it can be watched by hotel staff, and you might have better luck than we did - unfortunately there was no up-front parking available so we left it behind the building where our room was, and we paid the price for our mistake!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>This was a basic hotel with a comfortable bed in a remodeled room, well located and fairly priced for Houston Hobby airport. It was average in meeting our expectations for a single night stay both before and after our trip. We requested a ground floor room, and all that was available was an accessible room at the back of the building, which was fine for the night. But we left our car there for a week through a parking package, and after we returned home we realized that a very expensive trailer hitch had been removed from our vehicle. If you decide to do longterm parking here, be sure to move the car to the front of the building where it can be watched by hotel staff, and you might have better luck than we did - unfortunately there was no up-front parking available so we left it behind the building where our room was, and we paid the price for our mistake!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r487442514-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487442514</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>If you don't care about the service and attitude, stay here</t>
+  </si>
+  <si>
+    <t>I didn't stay in this hotel. I stayed in the nearby Hobby Airport Inn. I want to write something about the front desk people. The attitude is BAD. The front desk people of Hobby Airport Inn told me to have breakfast at this one since they have the same owner and Hobby Airport Inn don't have anything left for breakfast. I went to the lobby of this one, then the front desk people told me NO NO NO.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r487283339-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487283339</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>Called for the shuttle girl told us where to go and wait it would be 15 minutes.  25 minutes later I called again and a guy says he just found out we were waiting and sending someone so had to wait another 15 minutes.  Get there and check  in non smoking room on 2nd floor elevator broke so took the stairs, walked into our non smoking room that reeked of smoke.  Bathroom was dirty, I walked around in my flipflops as my feet stuck to the floor.  The tub was stained and shower curtain was filthy.  I put a towel down in the shower to stand on just to take a shower.  The chain lock was broken and the door looked as if someone was held hostage and tried to escape as the dents and scratches on the door.  Will not be back...MoreShow less</t>
+  </si>
+  <si>
+    <t>Called for the shuttle girl told us where to go and wait it would be 15 minutes.  25 minutes later I called again and a guy says he just found out we were waiting and sending someone so had to wait another 15 minutes.  Get there and check  in non smoking room on 2nd floor elevator broke so took the stairs, walked into our non smoking room that reeked of smoke.  Bathroom was dirty, I walked around in my flipflops as my feet stuck to the floor.  The tub was stained and shower curtain was filthy.  I put a towel down in the shower to stand on just to take a shower.  The chain lock was broken and the door looked as if someone was held hostage and tried to escape as the dents and scratches on the door.  Will not be back...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r480062466-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>480062466</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r479356203-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>479356203</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>If you don't care about quality, stay here.</t>
+  </si>
+  <si>
+    <t>The location is convenient because it's near Hobby Airport, but area is sketchy. Not really safe. I came back to the motel around 1am and was stopped by a man claiming to be homeless. So luckily I had $2 readily available in my pocket and gave it to him. Last thing I didn't want was to get robbed. TV service is horrible. Only has 3 channels and it cuts in and out the entire time. Room is ok but more on the outdated side. They tried to make it presentable even with broken things here and there. Overall, I wouldn't recommend this place to anyone unless you don't care about safety and quality. Just pay a little extra to stay at another hotel where you would have a better piece of mind. MoreShow less</t>
+  </si>
+  <si>
+    <t>The location is convenient because it's near Hobby Airport, but area is sketchy. Not really safe. I came back to the motel around 1am and was stopped by a man claiming to be homeless. So luckily I had $2 readily available in my pocket and gave it to him. Last thing I didn't want was to get robbed. TV service is horrible. Only has 3 channels and it cuts in and out the entire time. Room is ok but more on the outdated side. They tried to make it presentable even with broken things here and there. Overall, I wouldn't recommend this place to anyone unless you don't care about safety and quality. Just pay a little extra to stay at another hotel where you would have a better piece of mind. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r478571829-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>478571829</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>Fair price what you get</t>
+  </si>
+  <si>
+    <t>There were plenty of things that could use improvement, but for the bargain rate I received, I couldn't expect perfection. The first room had no dead bolt lock, and the new TV didn't work because an antenna had not yet been hooked up to it. They did move me to another room. It smelled like stale smoke, but that cleared out after using the air for a while. The first room had a coffee maker, but no microwave. The second room did not have a coffee maker, but did have a mostly functional microwave. It kept beeping, so I unplugged it. When I plugged it back in, it did actually heat the food up. The first room also had no knob on the bathroom door and didn't fit the door frame. Not a good thing if you're sharing a room. The breakfast was minimal, but again, what can you expect for a bargain rate. It had apples, bananas, muffins, cereal (no milk the second day), coffee and some sort of orange drink. They are trying to improve this hotel, and the furniture seemed newer. I'm sure there will be more updates forthcoming. One of those updates need to be to hang the shower curtain rod higher and bleach the mildew out of the shower curtain.MoreShow less</t>
+  </si>
+  <si>
+    <t>There were plenty of things that could use improvement, but for the bargain rate I received, I couldn't expect perfection. The first room had no dead bolt lock, and the new TV didn't work because an antenna had not yet been hooked up to it. They did move me to another room. It smelled like stale smoke, but that cleared out after using the air for a while. The first room had a coffee maker, but no microwave. The second room did not have a coffee maker, but did have a mostly functional microwave. It kept beeping, so I unplugged it. When I plugged it back in, it did actually heat the food up. The first room also had no knob on the bathroom door and didn't fit the door frame. Not a good thing if you're sharing a room. The breakfast was minimal, but again, what can you expect for a bargain rate. It had apples, bananas, muffins, cereal (no milk the second day), coffee and some sort of orange drink. They are trying to improve this hotel, and the furniture seemed newer. I'm sure there will be more updates forthcoming. One of those updates need to be to hang the shower curtain rod higher and bleach the mildew out of the shower curtain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r465835806-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465835806</t>
+  </si>
+  <si>
+    <t>03/09/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r465354794-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465354794</t>
+  </si>
+  <si>
+    <t>03/07/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r464593484-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464593484</t>
+  </si>
+  <si>
+    <t>03/04/2017</t>
+  </si>
+  <si>
+    <t>Quick overnight stay at great price!</t>
+  </si>
+  <si>
+    <t>Had a business meeting in Houston and Hobby Airport is where my flight came in. I booked with this hotel because it was close to the airport and the price was great. I called their number to get shuttle from airport when i got into Houston. The room was smelling good and everything looked. The price I booked at was great. The shuttle ride was quick since the hotel is close to the airport.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r462324556-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462324556</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>Close to airport and has 24hr shuttle!</t>
+  </si>
+  <si>
+    <t>I arrived at airport on the 7th at 2 in the morning for a 1 day business meeting. I called the Travelodge Houston Hobby number and told them that I needed a shuttle from the Hobby to the motel. The check in guy was nice and told me to wait at the motel pickup area and the shuttle would come in 15 mins. Apparently the shuttle is a van. Old but clean. The ride to motel was less than 5 mins. The room was in good condition and bed was comfy. The frontdesk arranged for taxi in the morning and then I checked out. The property looks older style but it was a good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>I arrived at airport on the 7th at 2 in the morning for a 1 day business meeting. I called the Travelodge Houston Hobby number and told them that I needed a shuttle from the Hobby to the motel. The check in guy was nice and told me to wait at the motel pickup area and the shuttle would come in 15 mins. Apparently the shuttle is a van. Old but clean. The ride to motel was less than 5 mins. The room was in good condition and bed was comfy. The frontdesk arranged for taxi in the morning and then I checked out. The property looks older style but it was a good stay.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +949,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +981,1672 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s">
+        <v>113</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>114</v>
+      </c>
+      <c r="O13" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>119</v>
+      </c>
+      <c r="O14" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>119</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" t="s">
+        <v>125</v>
+      </c>
+      <c r="K16" t="s">
+        <v>126</v>
+      </c>
+      <c r="L16" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>119</v>
+      </c>
+      <c r="O16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" t="s">
+        <v>132</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>104</v>
+      </c>
+      <c r="O17" t="s">
+        <v>133</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>136</v>
+      </c>
+      <c r="J18" t="s">
+        <v>137</v>
+      </c>
+      <c r="K18" t="s">
+        <v>138</v>
+      </c>
+      <c r="L18" t="s">
+        <v>139</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>104</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>141</v>
+      </c>
+      <c r="J19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" t="s">
+        <v>142</v>
+      </c>
+      <c r="L19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>104</v>
+      </c>
+      <c r="O19" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>148</v>
+      </c>
+      <c r="O20" t="s">
+        <v>88</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K21" t="s">
+        <v>152</v>
+      </c>
+      <c r="L21" t="s">
+        <v>153</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>148</v>
+      </c>
+      <c r="O21" t="s">
+        <v>88</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>156</v>
+      </c>
+      <c r="J22" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" t="s">
+        <v>158</v>
+      </c>
+      <c r="L22" t="s">
+        <v>159</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>148</v>
+      </c>
+      <c r="O22" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s">
+        <v>113</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>164</v>
+      </c>
+      <c r="O23" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>166</v>
+      </c>
+      <c r="J24" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>164</v>
+      </c>
+      <c r="O24" t="s">
+        <v>133</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>169</v>
+      </c>
+      <c r="J25" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25" t="s">
+        <v>172</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>164</v>
+      </c>
+      <c r="O25" t="s">
+        <v>88</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>174</v>
+      </c>
+      <c r="J26" t="s">
+        <v>175</v>
+      </c>
+      <c r="K26" t="s">
+        <v>176</v>
+      </c>
+      <c r="L26" t="s">
+        <v>177</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>178</v>
+      </c>
+      <c r="O26" t="s">
+        <v>88</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_666.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_666.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="279">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,132 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r614202955-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>12104043</t>
+  </si>
+  <si>
+    <t>614202955</t>
+  </si>
+  <si>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>dirty hotel</t>
+  </si>
+  <si>
+    <t>we were suppose to stay in this hotel for one night only and our story began when we were in the front desk area the receptionist did not even look at my face i was the second in line to check in and it took him 23 mins to finish the first guest. finally we got our room keys. my friend went up to his room only to find someone else in there. i entered my room and i could not stand the very bad smell. it smelled like vomit. i checked my bed and i found stains on the sheet and pillow cases and the surprisingly the room was haunted by ants. two rooms checked in and checked out at the same time as we were looking.I do not recommend this hotel all. there was a lot of suspicious individuals looking at us while we are checking in.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>FrontDesk_GM, General Manager at Travelodge by Wyndham Houston Hobby Airport, responded to this reviewResponded 5 days ago</t>
+  </si>
+  <si>
+    <t>Responded 5 days ago</t>
+  </si>
+  <si>
+    <t>we were suppose to stay in this hotel for one night only and our story began when we were in the front desk area the receptionist did not even look at my face i was the second in line to check in and it took him 23 mins to finish the first guest. finally we got our room keys. my friend went up to his room only to find someone else in there. i entered my room and i could not stand the very bad smell. it smelled like vomit. i checked my bed and i found stains on the sheet and pillow cases and the surprisingly the room was haunted by ants. two rooms checked in and checked out at the same time as we were looking.I do not recommend this hotel all. there was a lot of suspicious individuals looking at us while we are checking in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r606830579-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>606830579</t>
+  </si>
+  <si>
+    <t>08/15/2018</t>
+  </si>
+  <si>
+    <t>Good job Travelodge</t>
+  </si>
+  <si>
+    <t>Clean friendly and went out of their way to help me any way they could airport shuttle a huge plus very nice staff even with the fact that I was traveling with a service animal they did charge me 10 which I didn't mind even though it was not what the ADA says it was only 10MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>FrontDesk_GM, General Manager at Travelodge by Wyndham Houston Hobby Airport, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Clean friendly and went out of their way to help me any way they could airport shuttle a huge plus very nice staff even with the fact that I was traveling with a service animal they did charge me 10 which I didn't mind even though it was not what the ADA says it was only 10More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r605559381-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>605559381</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>Different</t>
+  </si>
+  <si>
+    <t>The only good thing about this hotel is that is close to the airport.  There was one individual that works there that was very pleasant the other three gave the impression that you were wasting their time.  The room itself was semi-clean had many cracks and bathroom was a little disgusting.  They are cotton about first consisted of cereal and bread. I wouldn’t stay at this hotel unless there is absolutely no where else to go. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>FrontDesk_GM, General Manager at Travelodge by Wyndham Houston Hobby Airport, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>The only good thing about this hotel is that is close to the airport.  There was one individual that works there that was very pleasant the other three gave the impression that you were wasting their time.  The room itself was semi-clean had many cracks and bathroom was a little disgusting.  They are cotton about first consisted of cereal and bread. I wouldn’t stay at this hotel unless there is absolutely no where else to go. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r587951414-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>587951414</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>The service provided by this motel is great. They came to pick us up from the airport and even came to drop us off. During the checkin process, the staff was very nice and very fast. We were in our room in no time. The room was pretty clean and had all the amenities. Our sleep was also very comfortable. Overall we had an amazing stay at this place, however, the only thing we didnt like was the location.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>FrontDesk_GM, General Manager at Travelodge by Wyndham Houston Hobby Airport, responded to this reviewResponded June 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2018</t>
+  </si>
+  <si>
+    <t>The service provided by this motel is great. They came to pick us up from the airport and even came to drop us off. During the checkin process, the staff was very nice and very fast. We were in our room in no time. The room was pretty clean and had all the amenities. Our sleep was also very comfortable. Overall we had an amazing stay at this place, however, the only thing we didnt like was the location.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r587692604-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>12104043</t>
-  </si>
-  <si>
     <t>587692604</t>
   </si>
   <si>
@@ -171,18 +285,9 @@
     <t>I liked the hotel, but the front desk staff could be more friendly and welcoming. The clerk in the evening was rude and need more training in customer service. I think access to a restuarant is needed. They are pretty close to the highway, but the nice restaurants are at the next exit, so I had to take a cab.MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>FrontDesk_GM, General Manager at Travelodge by Wyndham Houston Hobby Airport, responded to this reviewResponded June 19, 2018</t>
-  </si>
-  <si>
-    <t>Responded June 19, 2018</t>
-  </si>
-  <si>
     <t>I liked the hotel, but the front desk staff could be more friendly and welcoming. The clerk in the evening was rude and need more training in customer service. I think access to a restuarant is needed. They are pretty close to the highway, but the nice restaurants are at the next exit, so I had to take a cab.More</t>
   </si>
   <si>
@@ -204,9 +309,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r566714168-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -228,6 +330,33 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r565302653-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>565302653</t>
+  </si>
+  <si>
+    <t>03/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r565089145-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>565089145</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>Absolute worst hotel ever.  Gave our room away when we checked in around 6p.  The floor boards or bed upstairs creaked all night.  Comforter was filthy.  (I don't think it was ever washed).  Breakfast was 1 kind of cereal and coffee.  Dirty, filthy room.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r556587593-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -264,6 +393,27 @@
     <t xml:space="preserve">This place was maybe the worst hotel I’ve ever stayed in. There was not cold water in the sink, the heat was almost warm, and I felt I’d stay cleaner by not taking a shower.  On the plus side, the front desk staff was great and the shuttle to the airports was on time.  If stranded in Houston again, I’d probably elect to stay at the airport </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r555063709-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555063709</t>
+  </si>
+  <si>
+    <t>01/20/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r549812920-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>549812920</t>
+  </si>
+  <si>
+    <t>12/28/2017</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r546900206-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -279,12 +429,6 @@
     <t xml:space="preserve">Business trip this is a terrible hotel rooms are very bad shape and the guest in the hotel we’re very loud </t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r539465749-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -315,6 +459,36 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r534677707-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>534677707</t>
+  </si>
+  <si>
+    <t>10/20/2017</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r514756880-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>514756880</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t>This place is a dump. No security and you need it for this...</t>
+  </si>
+  <si>
+    <t>This place is a dump. No security and you need it for this area. Yea will never stay there again</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r512447703-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -345,9 +519,6 @@
     <t xml:space="preserve">The floors were wet, the floor and bed was uneven.. the office was locked at 2 in the afternoon and had to wait outside for a half an hour to check in...  </t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r505596984-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -366,6 +537,33 @@
     <t>More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r504164628-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504164628</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r499270693-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>499270693</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Stay  away, dodgie management, horrible place</t>
+  </si>
+  <si>
+    <t>Terrible place. The manager insisted that I had to pay cash for the room when I had already paid online. He pretended not to understand what I was saying. He was saying my reservation showed with a Dallas address (I had made my reservation with my SA address, he was just making this up) and that because my ID showed a San Antonio address, he couldn't honor it. When I called hotels.com to complain he then said it was fine for me to stay. But I didn't. While I was having all this issue with management, I had the opportunity to see the other guests coming and going. It is a really unsafe area, and they had the dodgiest people just hanging around in the parking lot, which completely lacks security. My husband was flying that night from Hobby, and no way I was staying there on my own, specially after the manager had tried to scam me with double charging for the room. I lost the money paid for the booking, as hotels.com wouldn't refund me despite my explaining of all of the issues, but I rather lose some money than spend a night there. It honestly sits in a horrible spot, other reviews that say it looks like a crack house are not exaggerating. For a little more money you can stay in Super 8 down the road and it is a world of difference.MoreShow less</t>
+  </si>
+  <si>
+    <t>Terrible place. The manager insisted that I had to pay cash for the room when I had already paid online. He pretended not to understand what I was saying. He was saying my reservation showed with a Dallas address (I had made my reservation with my SA address, he was just making this up) and that because my ID showed a San Antonio address, he couldn't honor it. When I called hotels.com to complain he then said it was fine for me to stay. But I didn't. While I was having all this issue with management, I had the opportunity to see the other guests coming and going. It is a really unsafe area, and they had the dodgiest people just hanging around in the parking lot, which completely lacks security. My husband was flying that night from Hobby, and no way I was staying there on my own, specially after the manager had tried to scam me with double charging for the room. I lost the money paid for the booking, as hotels.com wouldn't refund me despite my explaining of all of the issues, but I rather lose some money than spend a night there. It honestly sits in a horrible spot, other reviews that say it looks like a crack house are not exaggerating. For a little more money you can stay in Super 8 down the road and it is a world of difference.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r497790870-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -402,6 +600,39 @@
     <t>Would not stay here again I believe their was prostitution at this location due to females walking back and forth from room with a male keeping eye on them. Also woke up at 530 in the morning to people arguing back and forth next room to us</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r494133025-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>494133025</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>Travelodge by Hobby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very comfortable beds and good shower pressure. We had several bugs in our room. The least favorite was the TV. We had about 15 channels and half of them didn't work. I will not stay here again! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r492213025-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>492213025</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>Economy hotel with luxurious services at Hobby Airport</t>
+  </si>
+  <si>
+    <t>I and my wife wanted to book the economy hotel that provides luxury of the franchise. We tried this newly opened hotel. One phone call from the airport and their shuttle pick us up within 5 minutes. Great service. We got warm greeting from the front desk clerk Raj and he helped us move our luggage to our room. The room was very clean, refreshing smell, bed was very comfortable and bath room was clean as well. The front desk checked with us couple of times, as if we are his family members, to see how he can make our stay more comfortable and enjoying. He showed us good restaurant nearby and we enjoyed our dinner. It was very quiet and we got good sleep. The breakfast was great with 2 kinds of cereals &amp; milk, 2 kinds of fruits, muffins, honey buns, toast and orange juice and it was way beyond our expectations. Usually economy hotels that I stayed in the past only provide coffee and donuts in the breakfast. I am amazed how this people sell this kind of room and provide this kind of services at such a low price.  I will visit again and do recommend to all travelers to go to this hotel and experience their hospitality themselves. They do care.MoreShow less</t>
+  </si>
+  <si>
+    <t>I and my wife wanted to book the economy hotel that provides luxury of the franchise. We tried this newly opened hotel. One phone call from the airport and their shuttle pick us up within 5 minutes. Great service. We got warm greeting from the front desk clerk Raj and he helped us move our luggage to our room. The room was very clean, refreshing smell, bed was very comfortable and bath room was clean as well. The front desk checked with us couple of times, as if we are his family members, to see how he can make our stay more comfortable and enjoying. He showed us good restaurant nearby and we enjoyed our dinner. It was very quiet and we got good sleep. The breakfast was great with 2 kinds of cereals &amp; milk, 2 kinds of fruits, muffins, honey buns, toast and orange juice and it was way beyond our expectations. Usually economy hotels that I stayed in the past only provide coffee and donuts in the breakfast. I am amazed how this people sell this kind of room and provide this kind of services at such a low price.  I will visit again and do recommend to all travelers to go to this hotel and experience their hospitality themselves. They do care.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r490124028-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -417,9 +648,6 @@
     <t>This was a basic hotel with a comfortable bed in a remodeled room, well located and fairly priced for Houston Hobby airport. It was average in meeting our expectations for a single night stay both before and after our trip. We requested a ground floor room, and all that was available was an accessible room at the back of the building, which was fine for the night. But we left our car there for a week through a parking package, and after we returned home we realized that a very expensive trailer hitch had been removed from our vehicle. If you decide to do longterm parking here, be sure to move the car to the front of the building where it can be watched by hotel staff, and you might have better luck than we did - unfortunately there was no up-front parking available so we left it behind the building where our room was, and we paid the price for our mistake!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>This was a basic hotel with a comfortable bed in a remodeled room, well located and fairly priced for Houston Hobby airport. It was average in meeting our expectations for a single night stay both before and after our trip. We requested a ground floor room, and all that was available was an accessible room at the back of the building, which was fine for the night. But we left our car there for a week through a parking package, and after we returned home we realized that a very expensive trailer hitch had been removed from our vehicle. If you decide to do longterm parking here, be sure to move the car to the front of the building where it can be watched by hotel staff, and you might have better luck than we did - unfortunately there was no up-front parking available so we left it behind the building where our room was, and we paid the price for our mistake!More</t>
   </si>
   <si>
@@ -453,6 +681,39 @@
     <t>Called for the shuttle girl told us where to go and wait it would be 15 minutes.  25 minutes later I called again and a guy says he just found out we were waiting and sending someone so had to wait another 15 minutes.  Get there and check  in non smoking room on 2nd floor elevator broke so took the stairs, walked into our non smoking room that reeked of smoke.  Bathroom was dirty, I walked around in my flipflops as my feet stuck to the floor.  The tub was stained and shower curtain was filthy.  I put a towel down in the shower to stand on just to take a shower.  The chain lock was broken and the door looked as if someone was held hostage and tried to escape as the dents and scratches on the door.  Will not be back...More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r486985952-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>486985952</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>My Hotel Stay</t>
+  </si>
+  <si>
+    <t>From the time I entered the lobby for check in there was a bad smell.  then when I went to my room the toilet was out of order, the tv didn't work, there was no phone or microwave which was in the amenities.  they changed the room I had to spray it down, and it the morning I woke up to bed bug crawling on my pillow. Terrible!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r481312104-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481312104</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Garbage hotel</t>
+  </si>
+  <si>
+    <t>Door had been kicked in and rigged to lock. No Cable, sheets had stains ,dust and mold on AC . And there complementary breakfast is a jock honey buns ,and muffins.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r480062466-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -462,9 +723,6 @@
     <t>04/29/2017</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r479356203-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -501,6 +759,24 @@
     <t>There were plenty of things that could use improvement, but for the bargain rate I received, I couldn't expect perfection. The first room had no dead bolt lock, and the new TV didn't work because an antenna had not yet been hooked up to it. They did move me to another room. It smelled like stale smoke, but that cleared out after using the air for a while. The first room had a coffee maker, but no microwave. The second room did not have a coffee maker, but did have a mostly functional microwave. It kept beeping, so I unplugged it. When I plugged it back in, it did actually heat the food up. The first room also had no knob on the bathroom door and didn't fit the door frame. Not a good thing if you're sharing a room. The breakfast was minimal, but again, what can you expect for a bargain rate. It had apples, bananas, muffins, cereal (no milk the second day), coffee and some sort of orange drink. They are trying to improve this hotel, and the furniture seemed newer. I'm sure there will be more updates forthcoming. One of those updates need to be to hang the shower curtain rod higher and bleach the mildew out of the shower curtain.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r475296526-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>475296526</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r472679748-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>472679748</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r465835806-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -537,6 +813,30 @@
     <t>Had a business meeting in Houston and Hobby Airport is where my flight came in. I booked with this hotel because it was close to the airport and the price was great. I called their number to get shuttle from airport when i got into Houston. The room was smelling good and everything looked. The price I booked at was great. The shuttle ride was quick since the hotel is close to the airport.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r464581959-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464581959</t>
+  </si>
+  <si>
+    <t>Budget hotel and decent stay</t>
+  </si>
+  <si>
+    <t>I was first hesitant to book for this property. For the price the stay was great and breakfast was nice. The frontdesk said that the rooms are renovated. It is not interior corridor but hey for the price, the renovated room i got was nice. smelled clean. The frontdesk allowed me to take the table chair outside and just enjoy the evening weather with a beer. Wifi was so so but i used my cellphone.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r463292616-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463292616</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12104043-r462324556-Travelodge_by_Wyndham_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -550,9 +850,6 @@
   </si>
   <si>
     <t>I arrived at airport on the 7th at 2 in the morning for a 1 day business meeting. I called the Travelodge Houston Hobby number and told them that I needed a shuttle from the Hobby to the motel. The check in guy was nice and told me to wait at the motel pickup area and the shuttle would come in 15 mins. Apparently the shuttle is a van. Old but clean. The ride to motel was less than 5 mins. The room was in good condition and bed was comfy. The frontdesk arranged for taxi in the morning and then I checked out. The property looks older style but it was a good stay.MoreShow less</t>
-  </si>
-  <si>
-    <t>February 2017</t>
   </si>
   <si>
     <t>I arrived at airport on the 7th at 2 in the morning for a 1 day business meeting. I called the Travelodge Houston Hobby number and told them that I needed a shuttle from the Hobby to the motel. The check in guy was nice and told me to wait at the motel pickup area and the shuttle would come in 15 mins. Apparently the shuttle is a van. Old but clean. The ride to motel was less than 5 mins. The room was in good condition and bed was comfy. The frontdesk arranged for taxi in the morning and then I checked out. The property looks older style but it was a good stay.More</t>
@@ -1090,7 +1387,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1100,10 +1397,16 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1151,13 +1454,13 @@
         <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1168,10 +1471,14 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -1187,7 +1494,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1196,49 +1503,43 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -1254,7 +1555,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1263,44 +1564,44 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1315,7 +1616,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1324,44 +1625,44 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1376,7 +1677,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1385,49 +1686,39 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>4</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -1443,7 +1734,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1452,41 +1743,41 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
         <v>4</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1494,7 +1785,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -1510,7 +1801,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1519,50 +1810,44 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" t="s">
-        <v>93</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
-      <c r="Y9" t="s">
-        <v>93</v>
-      </c>
+      <c r="Y9" t="s"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1577,7 +1862,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1586,21 +1871,25 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -1609,21 +1898,23 @@
         <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1638,7 +1929,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1647,34 +1938,30 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
         <v>103</v>
       </c>
-      <c r="M11" t="n">
-        <v>2</v>
-      </c>
-      <c r="N11" t="s">
-        <v>104</v>
-      </c>
-      <c r="O11" t="s">
-        <v>62</v>
-      </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1688,9 +1975,7 @@
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
-      <c r="Y11" t="s">
-        <v>103</v>
-      </c>
+      <c r="Y11" t="s"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1705,7 +1990,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1714,34 +1999,30 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
-      </c>
-      <c r="K12" t="s">
-        <v>107</v>
-      </c>
-      <c r="L12" t="s">
-        <v>108</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1755,9 +2036,7 @@
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
-      <c r="Y12" t="s">
-        <v>108</v>
-      </c>
+      <c r="Y12" t="s"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1772,7 +2051,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1781,23 +2060,25 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>112</v>
-      </c>
-      <c r="K13" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
       <c r="L13" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O13" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
@@ -1806,14 +2087,14 @@
         <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1821,7 +2102,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
@@ -1837,7 +2118,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -1846,10 +2127,10 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="J14" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -1857,26 +2138,26 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O14" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1898,7 +2179,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1907,33 +2188,33 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="J15" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
       <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" t="n">
         <v>4</v>
       </c>
-      <c r="N15" t="s">
-        <v>119</v>
-      </c>
-      <c r="O15" t="s">
-        <v>62</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
       <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
         <v>4</v>
       </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
@@ -1959,7 +2240,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -1968,25 +2249,25 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J16" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K16" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="O16" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -1995,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2010,7 +2291,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17">
@@ -2026,7 +2307,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2035,41 +2316,41 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="J17" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="K17" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="L17" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="O17" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>4</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2077,7 +2358,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18">
@@ -2093,7 +2374,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2102,42 +2383,44 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="J18" t="s">
-        <v>137</v>
-      </c>
-      <c r="K18" t="s">
-        <v>138</v>
-      </c>
-      <c r="L18" t="s">
-        <v>139</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
-      <c r="Y18" t="s">
-        <v>139</v>
-      </c>
+      <c r="Y18" t="s"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2152,7 +2435,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2161,50 +2444,44 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="J19" t="s">
-        <v>137</v>
-      </c>
-      <c r="K19" t="s">
-        <v>142</v>
-      </c>
-      <c r="L19" t="s">
-        <v>143</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="O19" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
-      <c r="Y19" t="s">
-        <v>144</v>
-      </c>
+      <c r="Y19" t="s"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2219,7 +2496,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2228,44 +2505,50 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="J20" t="s">
-        <v>147</v>
-      </c>
-      <c r="K20" t="s"/>
-      <c r="L20" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="K20" t="s">
+        <v>154</v>
+      </c>
+      <c r="L20" t="s">
+        <v>155</v>
+      </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="O20" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
-      <c r="Y20" t="s"/>
+      <c r="Y20" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2280,7 +2563,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2289,25 +2572,25 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="J21" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="K21" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="L21" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="O21" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -2316,14 +2599,14 @@
         <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2331,7 +2614,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22">
@@ -2347,7 +2630,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2356,41 +2639,41 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
+        <v>164</v>
+      </c>
+      <c r="J22" t="s">
+        <v>159</v>
+      </c>
+      <c r="K22" t="s">
+        <v>165</v>
+      </c>
+      <c r="L22" t="s">
+        <v>166</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
         <v>156</v>
       </c>
-      <c r="J22" t="s">
-        <v>157</v>
-      </c>
-      <c r="K22" t="s">
-        <v>158</v>
-      </c>
-      <c r="L22" t="s">
-        <v>159</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" t="s">
-        <v>148</v>
-      </c>
       <c r="O22" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
         <v>5</v>
       </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>3</v>
-      </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2398,7 +2681,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23">
@@ -2414,7 +2697,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2423,39 +2706,39 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="J23" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="O23" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2463,7 +2746,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24">
@@ -2479,7 +2762,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -2488,21 +2771,21 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="J24" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s"/>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="O24" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -2511,14 +2794,14 @@
         <v>3</v>
       </c>
       <c r="R24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2540,7 +2823,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -2549,35 +2832,37 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J25" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="K25" t="s">
+        <v>179</v>
+      </c>
+      <c r="L25" t="s">
+        <v>180</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
         <v>171</v>
       </c>
-      <c r="L25" t="s">
-        <v>172</v>
-      </c>
-      <c r="M25" t="n">
-        <v>4</v>
-      </c>
-      <c r="N25" t="s">
-        <v>164</v>
-      </c>
       <c r="O25" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2585,7 +2870,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26">
@@ -2601,7 +2886,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -2610,43 +2895,1321 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="J26" t="s">
-        <v>175</v>
-      </c>
-      <c r="K26" t="s">
-        <v>176</v>
-      </c>
-      <c r="L26" t="s">
-        <v>177</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="O26" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
-      <c r="Y26" t="s">
-        <v>179</v>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>187</v>
+      </c>
+      <c r="J27" t="s">
+        <v>188</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>185</v>
+      </c>
+      <c r="O27" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>189</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>190</v>
+      </c>
+      <c r="J28" t="s">
+        <v>191</v>
+      </c>
+      <c r="K28" t="s">
+        <v>192</v>
+      </c>
+      <c r="L28" t="s">
+        <v>193</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>185</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>195</v>
+      </c>
+      <c r="J29" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" t="s">
+        <v>197</v>
+      </c>
+      <c r="L29" t="s">
+        <v>198</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>185</v>
+      </c>
+      <c r="O29" t="s">
+        <v>103</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>199</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>200</v>
+      </c>
+      <c r="J30" t="s">
+        <v>201</v>
+      </c>
+      <c r="K30" t="s">
+        <v>202</v>
+      </c>
+      <c r="L30" t="s">
+        <v>203</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>162</v>
+      </c>
+      <c r="O30" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>205</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>206</v>
+      </c>
+      <c r="J31" t="s">
+        <v>207</v>
+      </c>
+      <c r="K31" t="s">
+        <v>208</v>
+      </c>
+      <c r="L31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>162</v>
+      </c>
+      <c r="O31" t="s">
+        <v>80</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>211</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>212</v>
+      </c>
+      <c r="J32" t="s">
+        <v>213</v>
+      </c>
+      <c r="K32" t="s">
+        <v>214</v>
+      </c>
+      <c r="L32" t="s">
+        <v>215</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>162</v>
+      </c>
+      <c r="O32" t="s">
+        <v>89</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>217</v>
+      </c>
+      <c r="J33" t="s">
+        <v>213</v>
+      </c>
+      <c r="K33" t="s">
+        <v>218</v>
+      </c>
+      <c r="L33" t="s">
+        <v>219</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>162</v>
+      </c>
+      <c r="O33" t="s">
+        <v>80</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>222</v>
+      </c>
+      <c r="J34" t="s">
+        <v>223</v>
+      </c>
+      <c r="K34" t="s">
+        <v>224</v>
+      </c>
+      <c r="L34" t="s">
+        <v>225</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>162</v>
+      </c>
+      <c r="O34" t="s">
+        <v>80</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>226</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>227</v>
+      </c>
+      <c r="J35" t="s">
+        <v>228</v>
+      </c>
+      <c r="K35" t="s">
+        <v>229</v>
+      </c>
+      <c r="L35" t="s">
+        <v>230</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>231</v>
+      </c>
+      <c r="O35" t="s">
+        <v>89</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>232</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>233</v>
+      </c>
+      <c r="J36" t="s">
+        <v>234</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>231</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>235</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>236</v>
+      </c>
+      <c r="J37" t="s">
+        <v>237</v>
+      </c>
+      <c r="K37" t="s">
+        <v>238</v>
+      </c>
+      <c r="L37" t="s">
+        <v>239</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>231</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>241</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>242</v>
+      </c>
+      <c r="J38" t="s">
+        <v>243</v>
+      </c>
+      <c r="K38" t="s">
+        <v>244</v>
+      </c>
+      <c r="L38" t="s">
+        <v>245</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>231</v>
+      </c>
+      <c r="O38" t="s">
+        <v>70</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>247</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>248</v>
+      </c>
+      <c r="J39" t="s">
+        <v>249</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>231</v>
+      </c>
+      <c r="O39" t="s">
+        <v>89</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>250</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>251</v>
+      </c>
+      <c r="J40" t="s">
+        <v>252</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>231</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>254</v>
+      </c>
+      <c r="J41" t="s">
+        <v>255</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s">
+        <v>170</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>256</v>
+      </c>
+      <c r="O41" t="s">
+        <v>80</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>257</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>258</v>
+      </c>
+      <c r="J42" t="s">
+        <v>259</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>256</v>
+      </c>
+      <c r="O42" t="s">
+        <v>80</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>260</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>261</v>
+      </c>
+      <c r="J43" t="s">
+        <v>262</v>
+      </c>
+      <c r="K43" t="s">
+        <v>263</v>
+      </c>
+      <c r="L43" t="s">
+        <v>264</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>256</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>265</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>266</v>
+      </c>
+      <c r="J44" t="s">
+        <v>262</v>
+      </c>
+      <c r="K44" t="s">
+        <v>267</v>
+      </c>
+      <c r="L44" t="s">
+        <v>268</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>256</v>
+      </c>
+      <c r="O44" t="s">
+        <v>89</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>269</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>270</v>
+      </c>
+      <c r="J45" t="s">
+        <v>271</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>272</v>
+      </c>
+      <c r="O45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>66077</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>273</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>274</v>
+      </c>
+      <c r="J46" t="s">
+        <v>275</v>
+      </c>
+      <c r="K46" t="s">
+        <v>276</v>
+      </c>
+      <c r="L46" t="s">
+        <v>277</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>272</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
